--- a/ResultadoEleicoesDistritos/PORTO_VILA NOVA DE GAIA.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_VILA NOVA DE GAIA.xlsx
@@ -597,64 +597,64 @@
         <v>80297</v>
       </c>
       <c r="H2" t="n">
-        <v>2985</v>
+        <v>2962</v>
       </c>
       <c r="I2" t="n">
-        <v>7944</v>
+        <v>8058</v>
       </c>
       <c r="J2" t="n">
-        <v>33292</v>
+        <v>33047</v>
       </c>
       <c r="K2" t="n">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="L2" t="n">
-        <v>9113</v>
+        <v>9167</v>
       </c>
       <c r="M2" t="n">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="N2" t="n">
-        <v>5744</v>
+        <v>5680</v>
       </c>
       <c r="O2" t="n">
+        <v>21</v>
+      </c>
+      <c r="P2" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>53</v>
+      </c>
+      <c r="R2" t="n">
+        <v>438</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3578</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5815</v>
+      </c>
+      <c r="U2" t="n">
+        <v>418</v>
+      </c>
+      <c r="V2" t="n">
+        <v>51385</v>
+      </c>
+      <c r="W2" t="n">
         <v>12</v>
       </c>
-      <c r="P2" t="n">
-        <v>115</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>61</v>
-      </c>
-      <c r="R2" t="n">
-        <v>417</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3614</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5707</v>
-      </c>
-      <c r="U2" t="n">
-        <v>440</v>
-      </c>
-      <c r="V2" t="n">
-        <v>51415</v>
-      </c>
-      <c r="W2" t="n">
-        <v>11</v>
-      </c>
       <c r="X2" t="n">
-        <v>51211</v>
+        <v>51184</v>
       </c>
       <c r="Y2" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="n">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="AA2" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
